--- a/Liste_des_rubriques_BDD_Quizzeo.xlsx
+++ b/Liste_des_rubriques_BDD_Quizzeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoborges/Desktop/IPSSI/QUIZZEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD098CF0-FE4B-774D-9643-0A78F09AB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3F8D8F-9BE3-744F-A26D-630C65BAD152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+  <si>
+    <t>Liste des rubriques</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libellé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriété </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificateur </t>
+  </si>
+  <si>
+    <t>Primaire/Calculer</t>
+  </si>
+  <si>
+    <t>Entité</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ID Utilisateur</t>
+  </si>
+  <si>
+    <t>Nom Utilisateur</t>
+  </si>
+  <si>
+    <t>Prénom Utilisateur</t>
+  </si>
+  <si>
+    <t>Mail Utilisateur</t>
+  </si>
+  <si>
+    <t>mdp Utilisateur</t>
+  </si>
+  <si>
+    <t>type Utilisateur</t>
+  </si>
+  <si>
+    <t>ID Quizz</t>
+  </si>
+  <si>
+    <t>Quizz</t>
+  </si>
+  <si>
+    <t>Titre Quizz</t>
+  </si>
+  <si>
+    <t>Difficulte Quizz</t>
+  </si>
+  <si>
+    <t>date creation Quizz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id Question </t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>initulé Question</t>
+  </si>
+  <si>
+    <t>Difficulte Question</t>
+  </si>
+  <si>
+    <t>date creation Question</t>
+  </si>
+  <si>
+    <t>id choix</t>
+  </si>
+  <si>
+    <t>Choix</t>
+  </si>
+  <si>
+    <t>reponse choix</t>
+  </si>
+  <si>
+    <t>Bonne réponse choix</t>
+  </si>
+  <si>
+    <t>type question</t>
+  </si>
+  <si>
+    <t>id_utilisateur</t>
+  </si>
+  <si>
+    <t>prenom_utilisateur</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -54,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +163,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +510,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692A8272-194C-7046-A141-6012042AB201}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="11.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="23" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Liste_des_rubriques_BDD_Quizzeo.xlsx
+++ b/Liste_des_rubriques_BDD_Quizzeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoborges/Desktop/IPSSI/QUIZZEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3F8D8F-9BE3-744F-A26D-630C65BAD152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A8F14-B5FE-0E41-A381-0825261C1ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Liste des rubriques</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>initulé Question</t>
-  </si>
-  <si>
     <t>Difficulte Question</t>
   </si>
   <si>
@@ -132,6 +129,57 @@
   </si>
   <si>
     <t>prenom_utilisateur</t>
+  </si>
+  <si>
+    <t>nom_utilisateur</t>
+  </si>
+  <si>
+    <t>mail_utilisateur</t>
+  </si>
+  <si>
+    <t>mdp_utilisateur</t>
+  </si>
+  <si>
+    <t>type_utilisateur</t>
+  </si>
+  <si>
+    <t>id_quizz</t>
+  </si>
+  <si>
+    <t>titre_quizz</t>
+  </si>
+  <si>
+    <t>difficulte_quizz</t>
+  </si>
+  <si>
+    <t>date_creation_quizz</t>
+  </si>
+  <si>
+    <t>id_question</t>
+  </si>
+  <si>
+    <t>intitulé Question</t>
+  </si>
+  <si>
+    <t>intitule_question</t>
+  </si>
+  <si>
+    <t>type_question</t>
+  </si>
+  <si>
+    <t>difficulte_question</t>
+  </si>
+  <si>
+    <t>date_creation_question</t>
+  </si>
+  <si>
+    <t>id_choix</t>
+  </si>
+  <si>
+    <t>reponse_choix</t>
+  </si>
+  <si>
+    <t>bonne_reponse_choix</t>
   </si>
 </sst>
 </file>
@@ -513,7 +561,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +614,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -580,11 +628,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -598,10 +646,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
@@ -617,7 +667,9 @@
         <v>12</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +685,9 @@
         <v>13</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +703,9 @@
         <v>14</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
@@ -665,7 +721,9 @@
         <v>15</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +739,9 @@
         <v>17</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
@@ -697,7 +757,9 @@
         <v>18</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
@@ -713,7 +775,9 @@
         <v>19</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
@@ -729,7 +793,9 @@
         <v>20</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,10 +808,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
@@ -758,10 +826,12 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
@@ -774,10 +844,12 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
@@ -790,10 +862,12 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
@@ -806,15 +880,17 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -822,15 +898,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -838,15 +916,17 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">

--- a/Liste_des_rubriques_BDD_Quizzeo.xlsx
+++ b/Liste_des_rubriques_BDD_Quizzeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoborges/Desktop/IPSSI/QUIZZEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B21C84-708D-FD4A-A08C-3A1F75F0C54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B39EC-2EFB-834D-9A11-5AC56240A25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32740" yWindow="1540" windowWidth="30240" windowHeight="20660" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
+    <workbookView xWindow="32720" yWindow="1540" windowWidth="30240" windowHeight="20660" xr2:uid="{0FEACC3F-2C27-2D47-BD2F-08B96097C669}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
